--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2C_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2C_genetic_schedule.xlsx
@@ -520,9 +520,9 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>FN 303 - Finance
+          <t>AC 307 - Accounting
 2C
-Room 183</t>
+Room 34</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,66 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>CA 310 - Computer Applications
+2C
+Room 148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>BL 304 - Business Law
 2C
@@ -556,66 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BM 309 - Business Mathematics
-2C
-Room 149</t>
-        </is>
-      </c>
-    </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
         <is>
@@ -638,14 +637,6 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>BC 308 - Business Communication
-2C
-Room 150</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -653,8 +644,13 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>EC 306 - Economics
+2C
+Room 152</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -662,7 +658,38 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>AC 307 - Accounting
 2C
@@ -670,72 +697,44 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>FN 303 - Finance
+2C
+Room 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>MK 305 - Marketing
 2C
 Room 35</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>FN 303 - Finance
-2C
-Room 155</t>
-        </is>
-      </c>
+      <c r="C24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -751,7 +750,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -762,15 +760,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/section_2C_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/section_2C_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +121,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +581,28 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>AC 307 - Accounting
-2C
-Room 34</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2C
+Room 310
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 303
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2C
+Room 310
+Emp: 4</t>
         </is>
       </c>
     </row>
@@ -532,7 +612,9 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +622,9 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,7 +632,23 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2C
+Room 304
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -556,7 +656,8 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -564,13 +665,8 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>CA 310 - Computer Applications
-2C
-Room 148</t>
-        </is>
-      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -578,7 +674,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -607,11 +702,28 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BL 304 - Business Law
-2C
-Room 154</t>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>IS 214 - Organizational &amp; Management Concepts
+2C
+Room 303
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 303
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -621,7 +733,9 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="F13" s="8" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -629,7 +743,9 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="F14" s="8" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -637,6 +753,23 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>C2 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -644,11 +777,14 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>EC 306 - Economics
-2C
-Room 152</t>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="9" t="inlineStr">
+        <is>
+          <t>C2 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -658,7 +794,17 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -666,7 +812,8 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="9" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -674,7 +821,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
+      <c r="D19" s="6" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -689,11 +836,28 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>AC 307 - Accounting
-2C
-Room 151</t>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 304
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
+2C
+Room 303
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -703,14 +867,9 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>FN 303 - Finance
-2C
-Room 155</t>
-        </is>
-      </c>
+      <c r="C22" s="6" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="7" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -718,8 +877,9 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="7" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -727,14 +887,32 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MK 305 - Marketing
-2C
-Room 35</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -742,7 +920,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="E25" s="8" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -750,6 +930,9 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="4" t="n"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="E26" s="8" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -759,16 +942,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="18">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
